--- a/SODO/A Tuc/BAOCAO-NQ10-4069/(92) TRUONGHOP-KHONGDUDK-4069.xlsx
+++ b/SODO/A Tuc/BAOCAO-NQ10-4069/(92) TRUONGHOP-KHONGDUDK-4069.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -300,6 +300,17 @@
   </si>
   <si>
     <t>TỔNG: 92 TRƯỜNG HỢP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BÊN GIAO
+CHI NHÁNH VPĐKĐĐ HUYỆN HƯỚNG HOÁ
+TRẦN BẢO TÍN
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BÊN NHẬN
+PHÒNG TÀI NGUYÊN &amp; MÔI TRƯỜNG HUYỆN HƯỚNG HOÁ
+</t>
   </si>
 </sst>
 </file>
@@ -342,7 +353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -367,45 +378,8 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -416,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,17 +422,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -733,7 +710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -742,10 +719,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:G237"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2588,7 +2565,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>79</v>
       </c>
@@ -2611,7 +2588,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>80</v>
       </c>
@@ -2634,7 +2611,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>81</v>
       </c>
@@ -2657,7 +2634,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>82</v>
       </c>
@@ -2680,7 +2657,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>83</v>
       </c>
@@ -2703,7 +2680,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>84</v>
       </c>
@@ -2726,7 +2703,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>85</v>
       </c>
@@ -2749,7 +2726,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>86</v>
       </c>
@@ -2772,7 +2749,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>87</v>
       </c>
@@ -2795,7 +2772,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>88</v>
       </c>
@@ -2818,7 +2795,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>89</v>
       </c>
@@ -2841,7 +2818,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>90</v>
       </c>
@@ -2864,7 +2841,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>91</v>
       </c>
@@ -2887,7 +2864,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>92</v>
       </c>
@@ -2910,24 +2887,30 @@
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+    <row r="95" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="14"/>
-    </row>
-    <row r="96" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+    </row>
+    <row r="96" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="14"/>
     </row>
     <row r="97" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
@@ -4058,9 +4041,11 @@
       <c r="G237" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A95:G95"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="E96:G96"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
